--- a/.playwright-mcp/CUI-Spares-20260120.xlsx
+++ b/.playwright-mcp/CUI-Spares-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,12 +430,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 05:02:11Z</v>
+        <v>Generated: 2026-01-20 15:26:44Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Spares: 5</v>
+        <v>Total Spares: 25</v>
       </c>
     </row>
     <row r="6">
@@ -443,109 +443,70 @@
         <v>Program: CRIIS - Common Remotely Operated Integrated Reconnaissance System</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Serial Number</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Part Number</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Part Name</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Location</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Location Type</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Admin Location</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Custodial Location</v>
-      </c>
-      <c r="I8" t="str">
-        <v>UII</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Manufacture Date</v>
-      </c>
-      <c r="K8" t="str">
-        <v>In Transit</v>
-      </c>
-      <c r="L8" t="str">
-        <v>Bad Actor</v>
-      </c>
-      <c r="M8" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N8" t="str">
-        <v>Remarks</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Filters: Status: FMC</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CRIIS-005</v>
+        <v>Serial Number</v>
       </c>
       <c r="B9" t="str">
-        <v>PN-CAMERA-X</v>
+        <v>Part Number</v>
       </c>
       <c r="C9" t="str">
-        <v>Camera System X</v>
+        <v>Part Name</v>
       </c>
       <c r="D9" t="str">
-        <v>NMCM</v>
+        <v>Status</v>
       </c>
       <c r="E9" t="str">
-        <v>Depot Alpha</v>
+        <v>Location</v>
       </c>
       <c r="F9" t="str">
-        <v>depot</v>
+        <v>Location Type</v>
       </c>
       <c r="G9" t="str">
-        <v>DEPOT-A</v>
+        <v>Admin Location</v>
       </c>
       <c r="H9" t="str">
-        <v>MAINT-BAY-1</v>
+        <v>Custodial Location</v>
       </c>
       <c r="I9" t="str">
-        <v>W91WSL000005PN-CAMERA-</v>
+        <v>UII</v>
       </c>
       <c r="J9" t="str">
-        <v>2019-02-28</v>
+        <v>Manufacture Date</v>
       </c>
       <c r="K9" t="str">
-        <v>No</v>
+        <v>In Transit</v>
       </c>
       <c r="L9" t="str">
-        <v>Yes</v>
+        <v>Bad Actor</v>
       </c>
       <c r="M9" t="str">
-        <v>Yes</v>
+        <v>Active</v>
       </c>
       <c r="N9" t="str">
-        <v>Intermittent power failure - MX-2024-001</v>
+        <v>Remarks</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CRIIS-009</v>
+        <v>CRIIS-007</v>
       </c>
       <c r="B10" t="str">
-        <v>PN-COMM-SYS</v>
+        <v>PN-RADAR-01</v>
       </c>
       <c r="C10" t="str">
-        <v>Communication System</v>
+        <v>Radar Unit 01</v>
       </c>
       <c r="D10" t="str">
-        <v>CNDM</v>
+        <v>FMC</v>
       </c>
       <c r="E10" t="str">
-        <v>In Transit</v>
+        <v>Depot Alpha</v>
       </c>
       <c r="F10" t="str">
         <v>depot</v>
@@ -554,16 +515,16 @@
         <v>DEPOT-A</v>
       </c>
       <c r="H10" t="str">
-        <v>IN-TRANSIT</v>
+        <v>MAINT-BAY-3</v>
       </c>
       <c r="I10" t="str">
-        <v>W91WSL000009PN-COMM-SY</v>
+        <v>W91WSL000007PN-RADAR-0</v>
       </c>
       <c r="J10" t="str">
-        <v>2018-11-30</v>
+        <v>2019-06-20</v>
       </c>
       <c r="K10" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="L10" t="str">
         <v>No</v>
@@ -572,18 +533,18 @@
         <v>Yes</v>
       </c>
       <c r="N10" t="str">
-        <v>En route from vendor repair</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CRIIS-007</v>
+        <v>CRIIS-001</v>
       </c>
       <c r="B11" t="str">
-        <v>PN-RADAR-01</v>
+        <v>PN-SENSOR-A</v>
       </c>
       <c r="C11" t="str">
-        <v>Radar Unit 01</v>
+        <v>Sensor Unit A</v>
       </c>
       <c r="D11" t="str">
         <v>FMC</v>
@@ -598,13 +559,13 @@
         <v>DEPOT-A</v>
       </c>
       <c r="H11" t="str">
-        <v>MAINT-BAY-3</v>
+        <v>MAINT-BAY-1</v>
       </c>
       <c r="I11" t="str">
-        <v>W91WSL000007PN-RADAR-0</v>
+        <v>W91WSL000001PN-SENSOR-</v>
       </c>
       <c r="J11" t="str">
-        <v>2019-06-20</v>
+        <v>2020-03-15</v>
       </c>
       <c r="K11" t="str">
         <v>No</v>
@@ -621,19 +582,19 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>CRIIS-001</v>
+        <v>TEST-SPARE-001</v>
       </c>
       <c r="B12" t="str">
-        <v>PN-SENSOR-A</v>
+        <v>PN-TEST-001</v>
       </c>
       <c r="C12" t="str">
-        <v>Sensor Unit A</v>
+        <v>Spare Part PN-TEST-001</v>
       </c>
       <c r="D12" t="str">
         <v>FMC</v>
       </c>
       <c r="E12" t="str">
-        <v>Depot Alpha</v>
+        <v>No Location</v>
       </c>
       <c r="F12" t="str">
         <v>depot</v>
@@ -642,13 +603,13 @@
         <v>DEPOT-A</v>
       </c>
       <c r="H12" t="str">
-        <v>MAINT-BAY-1</v>
+        <v>DEPOT-A</v>
       </c>
       <c r="I12" t="str">
-        <v>W91WSL000001PN-SENSOR-</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>2020-03-15</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v>No</v>
@@ -665,19 +626,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>CRIIS-003</v>
+        <v>TEST-SPARE-002</v>
       </c>
       <c r="B13" t="str">
-        <v>PN-SENSOR-B</v>
+        <v>PN-TEST-002</v>
       </c>
       <c r="C13" t="str">
-        <v>Sensor Unit B</v>
+        <v>Spare Part PN-TEST-002</v>
       </c>
       <c r="D13" t="str">
-        <v>PMC</v>
+        <v>FMC</v>
       </c>
       <c r="E13" t="str">
-        <v>Depot Alpha</v>
+        <v>No Location</v>
       </c>
       <c r="F13" t="str">
         <v>depot</v>
@@ -686,13 +647,13 @@
         <v>DEPOT-A</v>
       </c>
       <c r="H13" t="str">
-        <v>MAINT-BAY-2</v>
+        <v>DEPOT-A</v>
       </c>
       <c r="I13" t="str">
-        <v>W91WSL000003PN-SENSOR-</v>
+        <v/>
       </c>
       <c r="J13" t="str">
-        <v>2019-11-08</v>
+        <v/>
       </c>
       <c r="K13" t="str">
         <v>No</v>
@@ -704,25 +665,950 @@
         <v>Yes</v>
       </c>
       <c r="N13" t="str">
-        <v>Awaiting software update</v>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TEST-SPARE-003</v>
+      </c>
+      <c r="B14" t="str">
+        <v>PN-TEST-003</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Spare Part PN-TEST-003</v>
+      </c>
+      <c r="D14" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E14" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F14" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G14" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v>No</v>
+      </c>
+      <c r="L14" t="str">
+        <v>No</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>TEST-SPARE-004</v>
+      </c>
+      <c r="B15" t="str">
+        <v>PN-TEST-004</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Spare Part PN-TEST-004</v>
+      </c>
+      <c r="D15" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E15" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F15" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G15" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>No</v>
+      </c>
+      <c r="L15" t="str">
+        <v>No</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TEST-SPARE-005</v>
+      </c>
+      <c r="B16" t="str">
+        <v>PN-TEST-005</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Spare Part PN-TEST-005</v>
+      </c>
+      <c r="D16" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E16" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F16" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G16" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H16" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>No</v>
+      </c>
+      <c r="L16" t="str">
+        <v>No</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TEST-SPARE-006</v>
+      </c>
+      <c r="B17" t="str">
+        <v>PN-TEST-006</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Spare Part PN-TEST-006</v>
+      </c>
+      <c r="D17" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E17" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F17" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G17" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>No</v>
+      </c>
+      <c r="L17" t="str">
+        <v>No</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TEST-SPARE-007</v>
+      </c>
+      <c r="B18" t="str">
+        <v>PN-TEST-007</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Spare Part PN-TEST-007</v>
+      </c>
+      <c r="D18" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E18" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F18" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G18" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H18" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>No</v>
+      </c>
+      <c r="L18" t="str">
+        <v>No</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TEST-SPARE-008</v>
+      </c>
+      <c r="B19" t="str">
+        <v>PN-TEST-008</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Spare Part PN-TEST-008</v>
+      </c>
+      <c r="D19" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E19" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F19" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G19" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>No</v>
+      </c>
+      <c r="L19" t="str">
+        <v>No</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TEST-SPARE-009</v>
+      </c>
+      <c r="B20" t="str">
+        <v>PN-TEST-009</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Spare Part PN-TEST-009</v>
+      </c>
+      <c r="D20" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E20" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F20" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G20" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>No</v>
+      </c>
+      <c r="L20" t="str">
+        <v>No</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TEST-SPARE-010</v>
+      </c>
+      <c r="B21" t="str">
+        <v>PN-TEST-010</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Spare Part PN-TEST-010</v>
+      </c>
+      <c r="D21" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E21" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F21" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G21" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>No</v>
+      </c>
+      <c r="L21" t="str">
+        <v>No</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TEST-SPARE-011</v>
+      </c>
+      <c r="B22" t="str">
+        <v>PN-TEST-011</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Spare Part PN-TEST-011</v>
+      </c>
+      <c r="D22" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E22" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F22" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G22" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>No</v>
+      </c>
+      <c r="L22" t="str">
+        <v>No</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TEST-SPARE-012</v>
+      </c>
+      <c r="B23" t="str">
+        <v>PN-TEST-012</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Spare Part PN-TEST-012</v>
+      </c>
+      <c r="D23" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E23" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F23" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G23" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H23" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>No</v>
+      </c>
+      <c r="L23" t="str">
+        <v>No</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TEST-SPARE-013</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PN-TEST-013</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Spare Part PN-TEST-013</v>
+      </c>
+      <c r="D24" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E24" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F24" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G24" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>No</v>
+      </c>
+      <c r="L24" t="str">
+        <v>No</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TEST-SPARE-014</v>
+      </c>
+      <c r="B25" t="str">
+        <v>PN-TEST-014</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Spare Part PN-TEST-014</v>
+      </c>
+      <c r="D25" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E25" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F25" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G25" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H25" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>No</v>
+      </c>
+      <c r="L25" t="str">
+        <v>No</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TEST-SPARE-015</v>
+      </c>
+      <c r="B26" t="str">
+        <v>PN-TEST-015</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Spare Part PN-TEST-015</v>
+      </c>
+      <c r="D26" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E26" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F26" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G26" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>No</v>
+      </c>
+      <c r="L26" t="str">
+        <v>No</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TEST-SPARE-016</v>
+      </c>
+      <c r="B27" t="str">
+        <v>PN-TEST-016</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Spare Part PN-TEST-016</v>
+      </c>
+      <c r="D27" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E27" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F27" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G27" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H27" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>No</v>
+      </c>
+      <c r="L27" t="str">
+        <v>No</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TEST-SPARE-017</v>
+      </c>
+      <c r="B28" t="str">
+        <v>PN-TEST-017</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Spare Part PN-TEST-017</v>
+      </c>
+      <c r="D28" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E28" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F28" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G28" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H28" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>No</v>
+      </c>
+      <c r="L28" t="str">
+        <v>No</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TEST-SPARE-018</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PN-TEST-018</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Spare Part PN-TEST-018</v>
+      </c>
+      <c r="D29" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E29" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F29" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G29" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v>No</v>
+      </c>
+      <c r="L29" t="str">
+        <v>No</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TEST-SPARE-019</v>
+      </c>
+      <c r="B30" t="str">
+        <v>PN-TEST-019</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Spare Part PN-TEST-019</v>
+      </c>
+      <c r="D30" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E30" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F30" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G30" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v>No</v>
+      </c>
+      <c r="L30" t="str">
+        <v>No</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>TEST-SPARE-020</v>
+      </c>
+      <c r="B31" t="str">
+        <v>PN-TEST-020</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Spare Part PN-TEST-020</v>
+      </c>
+      <c r="D31" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E31" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F31" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G31" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H31" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v>No</v>
+      </c>
+      <c r="L31" t="str">
+        <v>No</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TEST-SPARE-021</v>
+      </c>
+      <c r="B32" t="str">
+        <v>PN-TEST-021</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Spare Part PN-TEST-021</v>
+      </c>
+      <c r="D32" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E32" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F32" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G32" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H32" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v>No</v>
+      </c>
+      <c r="L32" t="str">
+        <v>No</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>TEST-SPARE-022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>PN-TEST-022</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Spare Part PN-TEST-022</v>
+      </c>
+      <c r="D33" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E33" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F33" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G33" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H33" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v>No</v>
+      </c>
+      <c r="L33" t="str">
+        <v>No</v>
+      </c>
+      <c r="M33" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TEST-SPARE-023</v>
+      </c>
+      <c r="B34" t="str">
+        <v>PN-TEST-023</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Spare Part PN-TEST-023</v>
+      </c>
+      <c r="D34" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E34" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F34" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G34" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H34" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v>No</v>
+      </c>
+      <c r="L34" t="str">
+        <v>No</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A36:N36"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.playwright-mcp/CUI-Spares-20260120.xlsx
+++ b/.playwright-mcp/CUI-Spares-20260120.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,12 +430,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 15:26:44Z</v>
+        <v>Generated: 2026-01-20 15:32:37Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Total Spares: 25</v>
+        <v>Total Spares: 37</v>
       </c>
     </row>
     <row r="6">
@@ -1592,8 +1592,536 @@
         <v/>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TEST-SPARE-024</v>
+      </c>
+      <c r="B35" t="str">
+        <v>PN-TEST-024</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Spare Part PN-TEST-024</v>
+      </c>
+      <c r="D35" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E35" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F35" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G35" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H35" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>No</v>
+      </c>
+      <c r="L35" t="str">
+        <v>No</v>
+      </c>
+      <c r="M35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>TEST-SPARE-025</v>
+      </c>
+      <c r="B36" t="str">
+        <v>PN-TEST-025</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Spare Part PN-TEST-025</v>
+      </c>
+      <c r="D36" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E36" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F36" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G36" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>No</v>
+      </c>
+      <c r="L36" t="str">
+        <v>No</v>
+      </c>
+      <c r="M36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TEST-SPARE-026</v>
+      </c>
+      <c r="B37" t="str">
+        <v>PN-TEST-026</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Spare Part PN-TEST-026</v>
+      </c>
+      <c r="D37" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E37" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F37" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G37" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H37" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>No</v>
+      </c>
+      <c r="L37" t="str">
+        <v>No</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TEST-SPARE-027</v>
+      </c>
+      <c r="B38" t="str">
+        <v>PN-TEST-027</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Spare Part PN-TEST-027</v>
+      </c>
+      <c r="D38" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E38" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F38" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G38" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H38" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v>No</v>
+      </c>
+      <c r="L38" t="str">
+        <v>No</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TEST-SPARE-028</v>
+      </c>
+      <c r="B39" t="str">
+        <v>PN-TEST-028</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Spare Part PN-TEST-028</v>
+      </c>
+      <c r="D39" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E39" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F39" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G39" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H39" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v>No</v>
+      </c>
+      <c r="L39" t="str">
+        <v>No</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TEST-SPARE-029</v>
+      </c>
+      <c r="B40" t="str">
+        <v>PN-TEST-029</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Spare Part PN-TEST-029</v>
+      </c>
+      <c r="D40" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E40" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F40" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G40" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v>No</v>
+      </c>
+      <c r="L40" t="str">
+        <v>No</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TEST-SPARE-030</v>
+      </c>
+      <c r="B41" t="str">
+        <v>PN-TEST-030</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Spare Part PN-TEST-030</v>
+      </c>
+      <c r="D41" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E41" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F41" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G41" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H41" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v>No</v>
+      </c>
+      <c r="L41" t="str">
+        <v>No</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TEST-SPARE-031</v>
+      </c>
+      <c r="B42" t="str">
+        <v>PN-TEST-031</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Spare Part PN-TEST-031</v>
+      </c>
+      <c r="D42" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E42" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F42" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G42" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H42" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v>No</v>
+      </c>
+      <c r="L42" t="str">
+        <v>No</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TEST-SPARE-032</v>
+      </c>
+      <c r="B43" t="str">
+        <v>PN-TEST-032</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Spare Part PN-TEST-032</v>
+      </c>
+      <c r="D43" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E43" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F43" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G43" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H43" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v>No</v>
+      </c>
+      <c r="L43" t="str">
+        <v>No</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TEST-SPARE-033</v>
+      </c>
+      <c r="B44" t="str">
+        <v>PN-TEST-033</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Spare Part PN-TEST-033</v>
+      </c>
+      <c r="D44" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E44" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F44" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G44" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H44" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v>No</v>
+      </c>
+      <c r="L44" t="str">
+        <v>No</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TEST-SPARE-034</v>
+      </c>
+      <c r="B45" t="str">
+        <v>PN-TEST-034</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Spare Part PN-TEST-034</v>
+      </c>
+      <c r="D45" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E45" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F45" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G45" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H45" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v>No</v>
+      </c>
+      <c r="L45" t="str">
+        <v>No</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TEST-SPARE-035</v>
+      </c>
+      <c r="B46" t="str">
+        <v>PN-TEST-035</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Spare Part PN-TEST-035</v>
+      </c>
+      <c r="D46" t="str">
+        <v>FMC</v>
+      </c>
+      <c r="E46" t="str">
+        <v>No Location</v>
+      </c>
+      <c r="F46" t="str">
+        <v>depot</v>
+      </c>
+      <c r="G46" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="H46" t="str">
+        <v>DEPOT-A</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v>No</v>
+      </c>
+      <c r="L46" t="str">
+        <v>No</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
         <v>CUI - CONTROLLED UNCLASSIFIED INFORMATION</v>
       </c>
     </row>
@@ -1605,10 +2133,10 @@
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A48:N48"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N48"/>
   </ignoredErrors>
 </worksheet>
 </file>